--- a/exemples_excel_access/output/rapport_final.xlsx
+++ b/exemples_excel_access/output/rapport_final.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-17 18:13:00</t>
+          <t>2026-02-18 09:29:00</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -513,7 +513,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-02-17 19:13:00</t>
+          <t>2026-02-18 10:29:00</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-02-17 20:13:00</t>
+          <t>2026-02-18 11:29:00</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-02-17 21:13:00</t>
+          <t>2026-02-18 12:29:00</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-02-17 22:13:00</t>
+          <t>2026-02-18 13:29:00</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-02-17 23:13:00</t>
+          <t>2026-02-18 14:29:00</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -688,7 +688,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:13:00</t>
+          <t>2026-02-18 15:29:00</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-02-18 01:13:00</t>
+          <t>2026-02-18 16:29:00</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-02-18 02:13:00</t>
+          <t>2026-02-18 17:29:00</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-02-18 03:13:00</t>
+          <t>2026-02-18 18:29:00</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -845,7 +845,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-02-18 04:13:00</t>
+          <t>2026-02-18 19:29:00</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-02-18 05:13:00</t>
+          <t>2026-02-18 20:29:00</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-02-18 06:13:00</t>
+          <t>2026-02-18 21:29:00</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-02-18 07:13:00</t>
+          <t>2026-02-18 22:29:00</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-02-18 08:13:00</t>
+          <t>2026-02-18 23:29:00</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-02-18 09:13:00</t>
+          <t>2026-02-19 00:29:00</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-02-18 10:13:00</t>
+          <t>2026-02-19 01:29:00</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-02-18 11:13:00</t>
+          <t>2026-02-19 02:29:00</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-02-18 12:13:00</t>
+          <t>2026-02-19 03:29:00</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-02-18 13:13:00</t>
+          <t>2026-02-19 04:29:00</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-24 18:13</t>
+          <t>2026-02-25 09:29</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-02-24 18:13</t>
+          <t>2026-02-25 09:29</t>
         </is>
       </c>
     </row>
